--- a/records/subjects/Simulation_Manifest.xlsx
+++ b/records/subjects/Simulation_Manifest.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>s1_e3_6.0x8.0_1234_3_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s1_e2_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,26 +498,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1791</v>
+        <v>1706</v>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="G2" t="n">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="J2" t="n">
-        <v>1.321</v>
+        <v>1.729</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 97}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.08318777292576418, "major_axis_max": 25.4, "poly_rad_min": 0.475, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 62}</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>s2_e7_6.0x8.0_1234_7_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s2_e25_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -541,26 +541,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1603</v>
+        <v>294</v>
       </c>
       <c r="F3" t="n">
-        <v>1029</v>
+        <v>1297</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="H3" t="n">
         <v>76</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="J3" t="n">
-        <v>1.053</v>
+        <v>5.474</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.103956343792633, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 150}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.07712550607287448, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 87}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>s3_e2_6.0x8.0_1234_2_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s3_e27_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -584,26 +584,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59</v>
+        <v>1026</v>
       </c>
       <c r="F4" t="n">
-        <v>807</v>
+        <v>350</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>638</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I4" t="n">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="J4" t="n">
-        <v>1.333</v>
+        <v>4.984</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.103956343792633, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 67}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.07807377049180327, "major_axis_max": 25.4, "poly_rad_min": 0.475, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 106}</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>s4_e6_6.0x8.0_1234_6_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s4_e16_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -627,26 +627,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1463</v>
+        <v>2325</v>
       </c>
       <c r="F5" t="n">
-        <v>114</v>
+        <v>1097</v>
       </c>
       <c r="G5" t="n">
-        <v>52</v>
+        <v>440</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I5" t="n">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.368</v>
+        <v>2.895</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 57}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.07799385875127941, "major_axis_max": 25.4, "poly_rad_min": 0.475, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 173}</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s5_e5_6.0x8.0_1234_5_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s5_e8_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -670,26 +670,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>503</v>
+        <v>1259</v>
       </c>
       <c r="F6" t="n">
-        <v>638</v>
+        <v>1528</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="H6" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="I6" t="n">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J6" t="n">
-        <v>1.042</v>
+        <v>1.242</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 6}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.08054968287526426, "major_axis_max": 25.4, "poly_rad_min": 0.475, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 16}</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>s6_e13_6.0x8.0_4321_5_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s6_e77_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -713,26 +713,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>537</v>
+        <v>1006</v>
       </c>
       <c r="F7" t="n">
-        <v>1277</v>
+        <v>702</v>
       </c>
       <c r="G7" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J7" t="n">
-        <v>1.737</v>
+        <v>2.19</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 68}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.09477611940298505, "major_axis_max": 25.4, "poly_rad_min": 0.475, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 19}</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s7_e11_6.0x8.0_4321_3_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s7_e88_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>311</v>
+        <v>1692</v>
       </c>
       <c r="F8" t="n">
-        <v>281</v>
+        <v>1288</v>
       </c>
       <c r="G8" t="n">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="H8" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I8" t="n">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="J8" t="n">
-        <v>1.729</v>
+        <v>1.211</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 126}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.1045984900480439, "major_axis_max": 25.4, "poly_rad_min": 0.4749999999999999, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 52}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>s8_e12_6.0x8.0_4321_4_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s8_e75_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -799,26 +799,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1690</v>
+        <v>1145</v>
       </c>
       <c r="F9" t="n">
-        <v>381</v>
+        <v>929</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="J9" t="n">
-        <v>1.222</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 159}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.09954278249510122, "major_axis_max": 25.4, "poly_rad_min": 0.4749999999999999, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 107}</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>s9_e11_6.0x8.0_4321_3_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s9_e39_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -842,26 +842,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1599</v>
+        <v>744</v>
       </c>
       <c r="F10" t="n">
-        <v>387</v>
+        <v>1081</v>
       </c>
       <c r="G10" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H10" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="J10" t="n">
-        <v>1.263</v>
+        <v>1.075</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.10402730375426619, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 112}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.09993442622950818, "major_axis_max": 25.4, "poly_rad_min": 0.475, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 74}</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>s10_e15_6.0x8.0_4321_7_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>s10_e32_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -885,26 +885,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>125</v>
+        <v>1822</v>
       </c>
       <c r="F11" t="n">
-        <v>944</v>
+        <v>545</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I11" t="n">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="J11" t="n">
-        <v>1.333</v>
+        <v>1.395</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.103956343792633, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 136}</t>
+          <t>{"num_sectors": 30, "max_axis_to_polygons_coefficient": 20, "opacity": 0.85, "blur_radius": 1.5, "unsharp_factor": 7, "gamma_adj": 1.1, "alpha_adj": 1.85, "gamma_re_adj": 0.8, "blur_kernel_dim": 3, "mm_per_pixel": 0.103956343792633, "major_axis_max": 25.4, "poly_rad_min": 0.47500000000000003, "poly_rad_max": 0.525, "poly_sides_min": 6, "poly_sides_max": 8, "blur_in_extension": 0.525, "blur_out_extension": 1.05, "angle": 21}</t>
         </is>
       </c>
     </row>
